--- a/data/education.xlsx
+++ b/data/education.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjysk\Box Sync\JY\blogging\cover_letter\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A00315273\Documents\GitHub\jy_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9CE23F-CE83-4E39-8B86-DEA16AF2F5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C3B97B-080C-4184-820C-AE0B3E4B6294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1290" yWindow="1958" windowWidth="19365" windowHeight="12187" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>what</t>
   </si>
@@ -37,31 +37,43 @@
     <t>why</t>
   </si>
   <si>
-    <t>Ph.D. in Learning, Design, and Technology</t>
-  </si>
-  <si>
-    <t>The Pennsylvania State University</t>
-  </si>
-  <si>
-    <t>University Park, PA</t>
-  </si>
-  <si>
-    <t>M.Ed. in Learning, Design, and Technology</t>
-  </si>
-  <si>
-    <t>Sungkyunkwan University</t>
-  </si>
-  <si>
-    <t>Committee members: Drs. Gabriela T. Richard (adviser; dissertation chair), Roy B. Clariana, ChanMin Kim, and Mary Beth Rosson.</t>
-  </si>
-  <si>
-    <t>Seoul, South Korea</t>
-  </si>
-  <si>
-    <t>Double B.A. in Education, English Literature</t>
-  </si>
-  <si>
-    <t>Dissertation Title: "Discovering Informal Learning Cultures of Blind Individuals Pursuing STEM Disciplines: A Computational Ethnography Using Public Listserv Archives."</t>
+    <t>PhD: Mathetatics, Specialization in Statistics</t>
+  </si>
+  <si>
+    <t>2013-2017</t>
+  </si>
+  <si>
+    <t>Utah State University</t>
+  </si>
+  <si>
+    <t>Logan, Utah, USA</t>
+  </si>
+  <si>
+    <t>Mentor: Dr. Chris Corcoran</t>
+  </si>
+  <si>
+    <t>TA: Lecturer and grader</t>
+  </si>
+  <si>
+    <t>RA: Simulation programmer, Cytel Software Inc.</t>
+  </si>
+  <si>
+    <t>MS: Statistics</t>
+  </si>
+  <si>
+    <t>2004-2006</t>
+  </si>
+  <si>
+    <t>RA: Statistician, Center for Epidemiology Studies</t>
+  </si>
+  <si>
+    <t>BS: Math and Chem Secondary Education</t>
+  </si>
+  <si>
+    <t>1998-2000</t>
+  </si>
+  <si>
+    <t>Student Teaching: Sky View High School, Smithfield, Utah</t>
   </si>
 </sst>
 </file>
@@ -902,13 +914,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="39.06640625" customWidth="1"/>
+    <col min="2" max="2" width="13.86328125" customWidth="1"/>
+    <col min="3" max="3" width="25.46484375" customWidth="1"/>
+    <col min="4" max="4" width="24.796875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -925,54 +945,60 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>2021</v>
+      <c r="B2" t="s">
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>2016</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E4" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5">
-        <v>2014</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
